--- a/src/assets/fxsj_mb/fxtb_f054_fdyxx.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f054_fdyxx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7280"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>年度</t>
   </si>
@@ -28,7 +28,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>工号</t>
+    <t>身份证号（工号）</t>
   </si>
   <si>
     <t>出生年月</t>
@@ -80,18 +80,6 @@
   </si>
   <si>
     <t>专科</t>
-  </si>
-  <si>
-    <t>周**</t>
-  </si>
-  <si>
-    <t>1973-08-12</t>
-  </si>
-  <si>
-    <t>朱**</t>
-  </si>
-  <si>
-    <t>1973-08-13</t>
   </si>
 </sst>
 </file>
@@ -99,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -140,6 +128,113 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -156,21 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,100 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +281,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +371,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,19 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,109 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,35 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,7 +509,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +529,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +572,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,19 +607,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,112 +628,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,13 +1078,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="8.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="9.83333333333333" customWidth="1"/>
@@ -1140,7 +1128,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9">
       <c r="A2" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="4">
         <v>31030</v>
@@ -1169,7 +1157,7 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:9">
       <c r="A3" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="4">
         <v>31030</v>
@@ -1198,7 +1186,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
       <c r="A4" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="4">
         <v>31030</v>
@@ -1223,64 +1211,6 @@
       </c>
       <c r="I4" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:9">
-      <c r="A5" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="4">
-        <v>31030</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5555</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:9">
-      <c r="A6" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="4">
-        <v>31030</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6666</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
